--- a/Azure RNE603217S Attribute Table.xlsx
+++ b/Azure RNE603217S Attribute Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zm/Desktop/Medtronic pacemaker attack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zm/Desktop/Medtronic pacemaker attack/Github clone/Azure-Pacemaker-Attack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E07808A-B690-F249-B1FE-5C6F81669363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A813CC4C-4B9B-C94F-908E-374EBFA6FB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D8966922-B437-3249-BCB9-3F15880A23D3}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" xr2:uid="{D8966922-B437-3249-BCB9-3F15880A23D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Handle</t>
   </si>
   <si>
-    <t>UUID(type)</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>(Written sth inside regularlly when the Notifications of 0x0015 are being sent; 9 bytes; but only the first byte is not 0x00)</t>
+  </si>
+  <si>
+    <t>UUID (type)</t>
   </si>
 </sst>
 </file>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B0C1D-5799-784E-B053-B524B31643E4}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,10 +650,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -688,10 +688,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -699,10 +699,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -718,10 +718,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -740,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -773,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -806,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -839,10 +839,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +850,10 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -861,29 +861,29 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -891,42 +891,42 @@
         <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
